--- a/Eagle/Haptic_Glove_Clean_BOM.xlsx
+++ b/Eagle/Haptic_Glove_Clean_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\VSProjects\haptic-glove\Eagle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A16689-789C-4F22-B5AD-42BF08F99749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD97E25-D164-46B0-BEA6-2138FDE975A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" xr2:uid="{EF368752-1FAA-44CB-B8CF-9458DD5190B7}"/>
+    <workbookView xWindow="-15" yWindow="5730" windowWidth="28800" windowHeight="15555" xr2:uid="{EF368752-1FAA-44CB-B8CF-9458DD5190B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Part</t>
   </si>
@@ -110,6 +110,39 @@
   </si>
   <si>
     <t>CAP0603-CAP</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>JST_2MM_MALE</t>
+  </si>
+  <si>
+    <t>LED-RED0603</t>
+  </si>
+  <si>
+    <t>LED-GREEN0603</t>
+  </si>
+  <si>
+    <t>LED-YELLOW0603</t>
+  </si>
+  <si>
+    <t>JST-2-SMD</t>
+  </si>
+  <si>
+    <t>PROG</t>
+  </si>
+  <si>
+    <t>THERM</t>
+  </si>
+  <si>
+    <t>SWITCH</t>
   </si>
 </sst>
 </file>
@@ -461,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50D5ABC-4BE9-435D-82CF-5DF7EEA559B9}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,111 +544,206 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>5</v>
+      <c r="J5">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>5</v>
+      <c r="J9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
         <v>3</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
